--- a/test_data/test_my_hand.xlsx
+++ b/test_data/test_my_hand.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="10500" firstSheet="16" activeTab="16"/>
+    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="23" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="get_gripper_firmware_version" sheetId="1" r:id="rId1"/>
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1842,7 +1842,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1952,7 +1952,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2149,7 +2149,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2397,7 +2397,6 @@
       <c r="E11" s="1">
         <v>256</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2418,7 +2417,6 @@
       <c r="E12" s="1">
         <v>256</v>
       </c>
-      <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
@@ -2439,7 +2437,6 @@
       <c r="E13" s="1">
         <v>-1</v>
       </c>
-      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2460,7 +2457,6 @@
       <c r="E14" s="1">
         <v>-1</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
@@ -2481,7 +2477,6 @@
       <c r="E15" s="1">
         <v>-1</v>
       </c>
-      <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2498,2411 +2493,6 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>150</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>150</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>150</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>150</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>150</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>150</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>150</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>256</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>256</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>256</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>120</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>120</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>120</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>120</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>120</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>150</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>150</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>150</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>150</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>150</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>150</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>150</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>150</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>255</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>255</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>255</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>17</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4941,16 +2531,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -4964,16 +2554,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -4987,16 +2577,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5010,16 +2600,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>183</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5033,16 +2623,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>184</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5056,16 +2646,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5079,16 +2669,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
@@ -5099,16 +2689,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -5119,70 +2709,70 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>188</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>86</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -5194,15 +2784,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>192</v>
+        <v>87</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -5214,15 +2804,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5240,13 +2830,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="I14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5281,16 +2871,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -5301,16 +2891,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
@@ -5321,16 +2911,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
@@ -5341,16 +2931,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>198</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -5361,16 +2951,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
@@ -5381,30 +2971,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:6">
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
@@ -5413,15 +3003,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
@@ -5436,13 +3026,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5480,16 +3070,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5503,16 +3093,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -5526,16 +3116,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -5549,16 +3139,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -5572,16 +3162,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -5595,16 +3185,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -5618,16 +3208,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>210</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
@@ -5638,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -5658,16 +3248,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>212</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -5678,16 +3268,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>213</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
       </c>
       <c r="E11" s="1">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>16</v>
@@ -5698,16 +3288,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>16</v>
@@ -5718,10 +3308,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -5738,10 +3328,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D14" s="1">
         <v>5</v>
@@ -5758,10 +3348,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -5779,23 +3369,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5809,310 +3399,163 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>218</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>220</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>221</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>223</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D7" s="1">
         <v>6</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>50</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>101</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>101</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>101</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6122,7 +3565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
@@ -6163,6 +3606,2558 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="28.8" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>255</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>255</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>255</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>100</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="60" customHeight="1" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I15" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="6" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>101</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>101</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>101</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="1">
+        <v>6</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="5" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>233</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6324,7 +6319,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -6515,7 +6510,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I27" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -6699,7 +6694,6 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
@@ -6720,7 +6714,6 @@
       <c r="E8" s="1">
         <v>16</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
@@ -6760,7 +6753,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -6813,7 +6806,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K13" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -6876,7 +6869,6 @@
       <c r="D3" s="1">
         <v>256</v>
       </c>
-      <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6894,7 +6886,6 @@
       <c r="D4" s="1">
         <v>-1</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
@@ -7060,7 +7051,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="K17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -7159,7 +7150,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7385,7 +7376,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J9" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
